--- a/maerkte.xlsx
+++ b/maerkte.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>300</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -488,7 +488,7 @@
         <v>600</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -501,7 +501,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -514,7 +514,7 @@
         <v>500</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
